--- a/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>40</v>
       </c>
     </row>
@@ -477,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +539,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>120</v>
@@ -507,9 +547,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B5" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,14 +498,6 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -517,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,14 +553,6 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -551,6 +552,243 @@
       </c>
       <c r="B4" t="n">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>89</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36.01009206990511</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137.5491389524055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.96813500303507</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150.7136481936353</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>101</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48.67899831613723</v>
+      </c>
+      <c r="D4" t="n">
+        <v>152.1499844686127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>105</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.3236440772446</v>
+      </c>
+      <c r="D5" t="n">
+        <v>157.0839615687336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.50347786745576</v>
+      </c>
+      <c r="D6" t="n">
+        <v>163.2758241723637</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>138</v>
+      </c>
+      <c r="C7" t="n">
+        <v>83.32567806601364</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187.179445053441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>90.9261967006817</v>
+      </c>
+      <c r="D8" t="n">
+        <v>191.9681068148047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.3736753043548</v>
+      </c>
+      <c r="D9" t="n">
+        <v>196.4288803594593</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="n">
+        <v>98.24764906396794</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200.9657352894827</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>154</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100.2389857283445</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200.0135495367424</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>158</v>
+      </c>
+      <c r="C12" t="n">
+        <v>103.8605121117479</v>
+      </c>
+      <c r="D12" t="n">
+        <v>207.624203785168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>162</v>
+      </c>
+      <c r="C13" t="n">
+        <v>113.0709751330943</v>
+      </c>
+      <c r="D13" t="n">
+        <v>213.8050016294895</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>166</v>
+      </c>
+      <c r="C14" t="n">
+        <v>114.3158145356619</v>
+      </c>
+      <c r="D14" t="n">
+        <v>218.3037384027098</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>170</v>
+      </c>
+      <c r="C15" t="n">
+        <v>115.9130639873493</v>
+      </c>
+      <c r="D15" t="n">
+        <v>226.8515136291911</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKHM2ZQ6_po_data.xlsx
@@ -565,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,16 +584,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -602,12 +592,6 @@
       <c r="B2" t="n">
         <v>89</v>
       </c>
-      <c r="C2" t="n">
-        <v>36.01009206990511</v>
-      </c>
-      <c r="D2" t="n">
-        <v>137.5491389524055</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -616,12 +600,6 @@
       <c r="B3" t="n">
         <v>97</v>
       </c>
-      <c r="C3" t="n">
-        <v>45.96813500303507</v>
-      </c>
-      <c r="D3" t="n">
-        <v>150.7136481936353</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -630,12 +608,6 @@
       <c r="B4" t="n">
         <v>101</v>
       </c>
-      <c r="C4" t="n">
-        <v>48.67899831613723</v>
-      </c>
-      <c r="D4" t="n">
-        <v>152.1499844686127</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -644,12 +616,6 @@
       <c r="B5" t="n">
         <v>105</v>
       </c>
-      <c r="C5" t="n">
-        <v>50.3236440772446</v>
-      </c>
-      <c r="D5" t="n">
-        <v>157.0839615687336</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -658,12 +624,6 @@
       <c r="B6" t="n">
         <v>109</v>
       </c>
-      <c r="C6" t="n">
-        <v>57.50347786745576</v>
-      </c>
-      <c r="D6" t="n">
-        <v>163.2758241723637</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -672,12 +632,6 @@
       <c r="B7" t="n">
         <v>138</v>
       </c>
-      <c r="C7" t="n">
-        <v>83.32567806601364</v>
-      </c>
-      <c r="D7" t="n">
-        <v>187.179445053441</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -686,12 +640,6 @@
       <c r="B8" t="n">
         <v>142</v>
       </c>
-      <c r="C8" t="n">
-        <v>90.9261967006817</v>
-      </c>
-      <c r="D8" t="n">
-        <v>191.9681068148047</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -700,12 +648,6 @@
       <c r="B9" t="n">
         <v>146</v>
       </c>
-      <c r="C9" t="n">
-        <v>92.3736753043548</v>
-      </c>
-      <c r="D9" t="n">
-        <v>196.4288803594593</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -714,12 +656,6 @@
       <c r="B10" t="n">
         <v>150</v>
       </c>
-      <c r="C10" t="n">
-        <v>98.24764906396794</v>
-      </c>
-      <c r="D10" t="n">
-        <v>200.9657352894827</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -728,12 +664,6 @@
       <c r="B11" t="n">
         <v>154</v>
       </c>
-      <c r="C11" t="n">
-        <v>100.2389857283445</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200.0135495367424</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -742,12 +672,6 @@
       <c r="B12" t="n">
         <v>158</v>
       </c>
-      <c r="C12" t="n">
-        <v>103.8605121117479</v>
-      </c>
-      <c r="D12" t="n">
-        <v>207.624203785168</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -756,12 +680,6 @@
       <c r="B13" t="n">
         <v>162</v>
       </c>
-      <c r="C13" t="n">
-        <v>113.0709751330943</v>
-      </c>
-      <c r="D13" t="n">
-        <v>213.8050016294895</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -770,12 +688,6 @@
       <c r="B14" t="n">
         <v>166</v>
       </c>
-      <c r="C14" t="n">
-        <v>114.3158145356619</v>
-      </c>
-      <c r="D14" t="n">
-        <v>218.3037384027098</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -783,12 +695,6 @@
       </c>
       <c r="B15" t="n">
         <v>170</v>
-      </c>
-      <c r="C15" t="n">
-        <v>115.9130639873493</v>
-      </c>
-      <c r="D15" t="n">
-        <v>226.8515136291911</v>
       </c>
     </row>
   </sheetData>
